--- a/rating_tables/kounice_vertical.xlsx
+++ b/rating_tables/kounice_vertical.xlsx
@@ -5,10 +5,10 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolaspaseka/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolaspaseka/Documents/Programming/school-stuff/Kostuj-Administration/rating_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11801C56-5934-2B46-AD90-BCA6D27F3062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{01626F06-863A-4C4E-A589-115C10E00A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{9CC57E5C-65FD-4F4C-89C4-D82B6B102442}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="29" uniqueCount="27">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="27" uniqueCount="25">
   <si>
     <t>vynikajicí</t>
   </si>
@@ -93,12 +84,6 @@
     <t>Chuť</t>
   </si>
   <si>
-    <t>Podpis degustátora:</t>
-  </si>
-  <si>
-    <t>Podpis předsedy komise:</t>
-  </si>
-  <si>
     <t>Harmonie - 
 celkový dojem</t>
   </si>
@@ -122,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -155,12 +140,6 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
@@ -1262,28 +1241,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1296,66 +1269,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1378,7 +1351,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,41 +1402,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1471,11 +1438,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1483,38 +1453,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1899,1196 +1872,1076 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6A324E-6D9B-514A-985A-59B77EADB818}">
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16" width="5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" style="1" customWidth="1"/>
-    <col min="19" max="21" width="5.6640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="16" width="5" customWidth="1"/>
+    <col min="17" max="17" width="6.5" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" customWidth="1"/>
+    <col min="19" max="21" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="72"/>
+      <c r="I1" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="73"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="92" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3">
+        <v>100</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="73"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="19">
+        <v>5</v>
+      </c>
+      <c r="H6" s="17">
+        <v>10</v>
+      </c>
+      <c r="I6" s="21">
+        <v>6</v>
+      </c>
+      <c r="J6" s="22">
+        <v>8</v>
+      </c>
+      <c r="K6" s="23">
         <v>16</v>
       </c>
-      <c r="H1" s="94"/>
-      <c r="I1" s="92" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="99" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="8"/>
-    </row>
-    <row r="2" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="88" t="s">
+      <c r="L6" s="19">
+        <v>6</v>
+      </c>
+      <c r="M6" s="16">
+        <v>8</v>
+      </c>
+      <c r="N6" s="16">
+        <v>8</v>
+      </c>
+      <c r="O6" s="17">
+        <v>22</v>
+      </c>
+      <c r="P6" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="77"/>
+    </row>
+    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3">
+        <v>86</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="20">
+        <v>4</v>
+      </c>
+      <c r="H7" s="18">
+        <v>8</v>
+      </c>
+      <c r="I7" s="24">
+        <v>5</v>
+      </c>
+      <c r="J7" s="13">
+        <v>7</v>
+      </c>
+      <c r="K7" s="25">
+        <v>14</v>
+      </c>
+      <c r="L7" s="20">
+        <v>5</v>
+      </c>
+      <c r="M7" s="13">
+        <v>7</v>
+      </c>
+      <c r="N7" s="13">
+        <v>7</v>
+      </c>
+      <c r="O7" s="18">
+        <v>19</v>
+      </c>
+      <c r="P7" s="27">
         <v>10</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="Q7" s="77"/>
+    </row>
+    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3">
+        <v>72</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="20">
+        <v>3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>6</v>
+      </c>
+      <c r="I8" s="24">
+        <v>4</v>
+      </c>
+      <c r="J8" s="13">
+        <v>6</v>
+      </c>
+      <c r="K8" s="25">
+        <v>12</v>
+      </c>
+      <c r="L8" s="20">
+        <v>4</v>
+      </c>
+      <c r="M8" s="13">
+        <v>6</v>
+      </c>
+      <c r="N8" s="13">
+        <v>6</v>
+      </c>
+      <c r="O8" s="18">
+        <v>16</v>
+      </c>
+      <c r="P8" s="27">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="77"/>
+    </row>
+    <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3">
+        <v>56</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="20">
+        <v>2</v>
+      </c>
+      <c r="H9" s="18">
+        <v>4</v>
+      </c>
+      <c r="I9" s="24">
+        <v>3</v>
+      </c>
+      <c r="J9" s="13">
+        <v>4</v>
+      </c>
+      <c r="K9" s="25">
+        <v>10</v>
+      </c>
+      <c r="L9" s="20">
+        <v>3</v>
+      </c>
+      <c r="M9" s="13">
+        <v>4</v>
+      </c>
+      <c r="N9" s="13">
+        <v>5</v>
+      </c>
+      <c r="O9" s="18">
+        <v>13</v>
+      </c>
+      <c r="P9" s="27">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="77"/>
+    </row>
+    <row r="10" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3">
+        <v>40</v>
+      </c>
+      <c r="D10" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="91"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="28">
+        <v>1</v>
+      </c>
+      <c r="H10" s="29">
+        <v>2</v>
+      </c>
+      <c r="I10" s="31">
+        <v>2</v>
+      </c>
+      <c r="J10" s="32">
+        <v>2</v>
+      </c>
+      <c r="K10" s="33">
+        <v>8</v>
+      </c>
+      <c r="L10" s="28">
+        <v>2</v>
+      </c>
+      <c r="M10" s="32">
+        <v>2</v>
+      </c>
+      <c r="N10" s="32">
+        <v>4</v>
+      </c>
+      <c r="O10" s="29">
+        <v>10</v>
+      </c>
+      <c r="P10" s="34">
         <v>7</v>
       </c>
-      <c r="I2" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="90" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="8"/>
-    </row>
-    <row r="4" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="8"/>
-    </row>
-    <row r="5" spans="1:21" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="4">
-        <v>100</v>
-      </c>
-      <c r="D6" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="23">
+      <c r="Q10" s="77"/>
+    </row>
+    <row r="11" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="21">
-        <v>10</v>
-      </c>
-      <c r="I6" s="25">
-        <v>6</v>
-      </c>
-      <c r="J6" s="26">
-        <v>8</v>
-      </c>
-      <c r="K6" s="27">
-        <v>16</v>
-      </c>
-      <c r="L6" s="23">
-        <v>6</v>
-      </c>
-      <c r="M6" s="20">
-        <v>8</v>
-      </c>
-      <c r="N6" s="20">
-        <v>8</v>
-      </c>
-      <c r="O6" s="21">
-        <v>22</v>
-      </c>
-      <c r="P6" s="30">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="99"/>
-    </row>
-    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="4">
-        <v>86</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="24">
+      <c r="D11" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="22">
-        <v>8</v>
-      </c>
-      <c r="I7" s="28">
-        <v>5</v>
-      </c>
-      <c r="J7" s="17">
-        <v>7</v>
-      </c>
-      <c r="K7" s="29">
-        <v>14</v>
-      </c>
-      <c r="L7" s="24">
-        <v>5</v>
-      </c>
-      <c r="M7" s="17">
-        <v>7</v>
-      </c>
-      <c r="N7" s="17">
-        <v>7</v>
-      </c>
-      <c r="O7" s="22">
-        <v>19</v>
-      </c>
-      <c r="P7" s="31">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="99"/>
-    </row>
-    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="4">
-        <v>72</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="24">
-        <v>3</v>
-      </c>
-      <c r="H8" s="22">
-        <v>6</v>
-      </c>
-      <c r="I8" s="28">
-        <v>4</v>
-      </c>
-      <c r="J8" s="17">
-        <v>6</v>
-      </c>
-      <c r="K8" s="29">
-        <v>12</v>
-      </c>
-      <c r="L8" s="24">
-        <v>4</v>
-      </c>
-      <c r="M8" s="17">
-        <v>6</v>
-      </c>
-      <c r="N8" s="17">
-        <v>6</v>
-      </c>
-      <c r="O8" s="22">
-        <v>16</v>
-      </c>
-      <c r="P8" s="31">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="99"/>
-    </row>
-    <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="4">
-        <v>56</v>
-      </c>
-      <c r="D9" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="24">
-        <v>2</v>
-      </c>
-      <c r="H9" s="22">
-        <v>4</v>
-      </c>
-      <c r="I9" s="28">
-        <v>3</v>
-      </c>
-      <c r="J9" s="17">
-        <v>4</v>
-      </c>
-      <c r="K9" s="29">
-        <v>10</v>
-      </c>
-      <c r="L9" s="24">
-        <v>3</v>
-      </c>
-      <c r="M9" s="17">
-        <v>4</v>
-      </c>
-      <c r="N9" s="17">
-        <v>5</v>
-      </c>
-      <c r="O9" s="22">
-        <v>13</v>
-      </c>
-      <c r="P9" s="31">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="99"/>
-    </row>
-    <row r="10" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="4">
-        <v>40</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="32">
-        <v>1</v>
-      </c>
-      <c r="H10" s="33">
-        <v>2</v>
-      </c>
-      <c r="I10" s="35">
-        <v>2</v>
-      </c>
-      <c r="J10" s="36">
-        <v>2</v>
-      </c>
-      <c r="K10" s="37">
-        <v>8</v>
-      </c>
-      <c r="L10" s="32">
-        <v>2</v>
-      </c>
-      <c r="M10" s="36">
-        <v>2</v>
-      </c>
-      <c r="N10" s="36">
-        <v>4</v>
-      </c>
-      <c r="O10" s="33">
-        <v>10</v>
-      </c>
-      <c r="P10" s="38">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="99"/>
-    </row>
-    <row r="11" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="8"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="51"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="51"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="47"/>
     </row>
     <row r="14" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="51"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="51"/>
-      <c r="T14" s="5"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="47"/>
     </row>
     <row r="15" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="51"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="51"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="47"/>
     </row>
     <row r="16" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="51"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="51"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-    </row>
-    <row r="17" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="51"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="51"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-    </row>
-    <row r="18" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="51"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="51"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-    </row>
-    <row r="19" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="51"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="51"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-    </row>
-    <row r="20" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="51"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="51"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-    </row>
-    <row r="21" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="51"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="51"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-    </row>
-    <row r="22" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="51"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="51"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-    </row>
-    <row r="23" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="51"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="51"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-    </row>
-    <row r="24" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="51"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="51"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-    </row>
-    <row r="25" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="51"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="51"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-    </row>
-    <row r="26" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="51"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="51"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-    </row>
-    <row r="27" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="51"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="51"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-    </row>
-    <row r="28" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="51"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="51"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-    </row>
-    <row r="29" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="51"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="51"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-    </row>
-    <row r="30" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="51"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="51"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-    </row>
-    <row r="31" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="51"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="51"/>
-      <c r="T31" s="5"/>
-    </row>
-    <row r="32" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="51"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="51"/>
-      <c r="T32" s="5"/>
-    </row>
-    <row r="33" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="51"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="51"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-    </row>
-    <row r="34" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="51"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="51"/>
-      <c r="T34" s="5"/>
-    </row>
-    <row r="35" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="51"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="51"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-    </row>
-    <row r="36" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="51"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="51"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-    </row>
-    <row r="37" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="51"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="51"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-    </row>
-    <row r="38" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="51"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="51"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-    </row>
-    <row r="39" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="51"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="51"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-    </row>
-    <row r="40" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="51"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="51"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-    </row>
-    <row r="41" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="51"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="51"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-    </row>
-    <row r="42" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="51"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="51"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-    </row>
-    <row r="43" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="51"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="51"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-    </row>
-    <row r="44" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="51"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="51"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-    </row>
-    <row r="45" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="51"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="51"/>
-      <c r="T45" s="5"/>
-    </row>
-    <row r="46" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="52"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="52"/>
-      <c r="T46" s="5"/>
-    </row>
-    <row r="47" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="J47" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="A16" s="47"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="47"/>
+    </row>
+    <row r="17" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="47"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="47"/>
+    </row>
+    <row r="18" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="47"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="47"/>
+    </row>
+    <row r="19" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="47"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="47"/>
+    </row>
+    <row r="20" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="47"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="47"/>
+    </row>
+    <row r="21" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="47"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="47"/>
+    </row>
+    <row r="22" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="47"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="47"/>
+    </row>
+    <row r="23" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="47"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="47"/>
+    </row>
+    <row r="24" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="47"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="47"/>
+    </row>
+    <row r="25" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="47"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="47"/>
+    </row>
+    <row r="26" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="47"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="47"/>
+    </row>
+    <row r="27" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="47"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="47"/>
+    </row>
+    <row r="28" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="47"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="47"/>
+    </row>
+    <row r="29" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="47"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="47"/>
+    </row>
+    <row r="30" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="47"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="47"/>
+    </row>
+    <row r="31" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="47"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="47"/>
+    </row>
+    <row r="32" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="47"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="47"/>
+    </row>
+    <row r="33" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="47"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="47"/>
+    </row>
+    <row r="34" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="47"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="47"/>
+    </row>
+    <row r="35" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="47"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="47"/>
+    </row>
+    <row r="36" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="47"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="47"/>
+    </row>
+    <row r="37" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="47"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="47"/>
+    </row>
+    <row r="38" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="47"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="47"/>
+    </row>
+    <row r="39" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="47"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="47"/>
+    </row>
+    <row r="40" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="47"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="47"/>
+    </row>
+    <row r="41" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="47"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="47"/>
+    </row>
+    <row r="42" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="47"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="47"/>
+    </row>
+    <row r="43" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="47"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="47"/>
+    </row>
+    <row r="44" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="47"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="47"/>
+    </row>
+    <row r="45" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="47"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="47"/>
+    </row>
+    <row r="46" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="48"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:P5"/>
-    <mergeCell ref="Q1:Q10"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="D44:F44"/>
@@ -3100,6 +2953,51 @@
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="Q1:Q10"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:P5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.27559055118110237" right="0" top="0.39370078740157483" bottom="0.27559055118110237" header="0" footer="0"/>
